--- a/NformTester/NformTester/Keywordscripts/600.10.20.100_DeviceStatusPriorityPolling.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.20.100_DeviceStatusPriorityPolling.xlsx
@@ -1278,7 +1278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7910" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7912" uniqueCount="895">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3944,14 +3944,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_GXT_Ip_Port$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$Trap_GXT_Trap$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3993,6 +3985,25 @@
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>$NAME_SNMP_device_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_device_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Trap_GXT_Port$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_default</t>
   </si>
 </sst>
 </file>
@@ -4158,7 +4169,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4169,8 +4180,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4210,10 +4224,15 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
@@ -4524,7 +4543,7 @@
   <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4541,10 +4560,10 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>815</v>
@@ -4585,10 +4604,10 @@
     </row>
     <row r="2" spans="1:14" ht="15">
       <c r="A2" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -4609,10 +4628,10 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -4643,10 +4662,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -4673,7 +4692,7 @@
     </row>
     <row r="5" spans="1:14" ht="15">
       <c r="A5" s="2" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B5" s="8">
         <v>41743</v>
@@ -4697,10 +4716,10 @@
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="2" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -4745,7 +4764,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="4">
@@ -4768,7 +4787,7 @@
         <v>875</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>876</v>
+        <v>890</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>849</v>
@@ -4783,7 +4802,7 @@
     </row>
     <row r="9" spans="1:14" ht="15">
       <c r="A9" s="2" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4">
@@ -5170,6 +5189,12 @@
       <c r="N22" s="14"/>
     </row>
     <row r="23" spans="1:14">
+      <c r="A23" s="17" t="s">
+        <v>893</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>894</v>
+      </c>
       <c r="C23" s="4">
         <v>22</v>
       </c>
@@ -5224,13 +5249,13 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="9" t="s">
-        <v>877</v>
+        <v>892</v>
       </c>
       <c r="I25" s="9">
         <v>1</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -5318,7 +5343,7 @@
         <v>60</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>876</v>
+        <v>890</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -5522,7 +5547,7 @@
         <v>60</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>876</v>
+        <v>890</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -5652,7 +5677,7 @@
         <v>60</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>876</v>
+        <v>890</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -5782,7 +5807,7 @@
         <v>60</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>876</v>
+        <v>891</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -5896,7 +5921,7 @@
         <v>56</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>876</v>
+        <v>890</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -6060,7 +6085,7 @@
         <v>60</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>876</v>
+        <v>891</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
